--- a/BackTest/2020-01-11 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-11 BackTest ETZ.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -1186,14 +1186,20 @@
         <v>17.273</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>14.67</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1221,14 +1227,20 @@
         <v>17.209</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>14.67</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1256,14 +1268,20 @@
         <v>17.13983333333334</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>15.76</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1298,7 +1316,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1333,7 +1355,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1368,7 +1394,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1433,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1438,7 +1472,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1473,7 +1511,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1550,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1543,7 +1589,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1578,7 +1628,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1613,7 +1667,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1648,7 +1706,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1683,7 +1745,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1718,7 +1784,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1753,7 +1823,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1788,7 +1862,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1823,7 +1901,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1858,7 +1940,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1893,7 +1979,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1928,7 +2018,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1963,7 +2057,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1998,7 +2096,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2033,7 +2135,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2068,7 +2174,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2103,7 +2213,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2252,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2173,7 +2291,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2208,7 +2330,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2243,7 +2369,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2278,7 +2408,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2313,7 +2447,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2486,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2383,7 +2525,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2564,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2603,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2488,7 +2642,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2523,7 +2681,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2558,7 +2720,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2593,7 +2759,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2628,7 +2798,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2663,7 +2837,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2698,7 +2876,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2733,7 +2915,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2768,7 +2954,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2803,7 +2993,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2838,7 +3032,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2873,7 +3071,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2908,7 +3110,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2943,7 +3149,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2978,7 +3188,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3013,7 +3227,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3048,7 +3266,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3083,7 +3305,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3118,7 +3344,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +3383,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3188,7 +3422,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3223,7 +3461,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3258,7 +3500,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3539,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3328,7 +3578,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3363,7 +3617,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3398,7 +3656,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3433,7 +3695,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3468,7 +3734,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3773,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3538,7 +3812,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3851,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3890,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3643,7 +3929,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3678,7 +3968,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3713,7 +4007,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3748,7 +4046,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3783,7 +4085,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3818,7 +4124,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +4163,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3888,7 +4202,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +4241,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +4280,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4319,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4358,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4397,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4436,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4133,7 +4475,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4168,7 +4514,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4553,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4592,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4631,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4670,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4709,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4748,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4787,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4826,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4865,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4904,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4943,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +4982,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +5021,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +5060,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +5099,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +5138,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +5177,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +5216,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +5255,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +5294,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4903,7 +5333,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +5372,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4973,7 +5411,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5450,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5489,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5078,7 +5528,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5113,7 +5567,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5606,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5645,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5684,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5723,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5762,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5801,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5840,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5879,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5918,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5957,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5996,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +6035,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +6074,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5599,14 +6109,16 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5634,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -5669,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5704,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -11199,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
@@ -11234,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
@@ -11374,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
@@ -16522,14 +17034,12 @@
         <v>0</v>
       </c>
       <c r="J461" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>11.95</v>
+      </c>
+      <c r="K461" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16565,10 +17075,12 @@
       <c r="J462" t="n">
         <v>12.1</v>
       </c>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M462" t="n">
@@ -16604,12 +17116,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K463" t="inlineStr"/>
+        <v>12.11</v>
+      </c>
+      <c r="K463" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M463" t="n">
@@ -16647,10 +17161,12 @@
       <c r="J464" t="n">
         <v>12.3</v>
       </c>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M464" t="n">
@@ -16686,9 +17202,11 @@
         <v>0</v>
       </c>
       <c r="J465" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K465" t="inlineStr"/>
+        <v>12.19</v>
+      </c>
+      <c r="K465" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16729,7 +17247,9 @@
       <c r="J466" t="n">
         <v>12.2</v>
       </c>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16762,15 +17282,15 @@
         <v>12.80333333333335</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16803,15 +17323,15 @@
         <v>12.78083333333335</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16850,9 +17370,11 @@
         <v>0</v>
       </c>
       <c r="J469" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="K469" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K469" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16885,15 +17407,15 @@
         <v>12.75183333333335</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16926,15 +17448,15 @@
         <v>12.73666666666669</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16967,15 +17489,15 @@
         <v>12.71650000000002</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17008,15 +17530,15 @@
         <v>12.69500000000002</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17049,15 +17571,15 @@
         <v>12.67300000000002</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17090,15 +17612,15 @@
         <v>12.65133333333335</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17131,15 +17653,15 @@
         <v>12.61766666666668</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17172,15 +17694,15 @@
         <v>12.59533333333335</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17213,15 +17735,15 @@
         <v>12.57166666666668</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17254,15 +17776,15 @@
         <v>12.55250000000002</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17295,15 +17817,15 @@
         <v>12.53616666666668</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17336,15 +17858,15 @@
         <v>12.51783333333335</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17377,15 +17899,15 @@
         <v>12.50300000000002</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17418,15 +17940,15 @@
         <v>12.49716666666669</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17459,15 +17981,15 @@
         <v>12.48216666666669</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17500,15 +18022,15 @@
         <v>12.47116666666669</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17541,15 +18063,15 @@
         <v>12.46283333333335</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17582,15 +18104,15 @@
         <v>12.45466666666669</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17623,15 +18145,15 @@
         <v>12.44750000000002</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17664,15 +18186,15 @@
         <v>12.44250000000002</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17705,15 +18227,15 @@
         <v>12.43000000000002</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17746,15 +18268,15 @@
         <v>12.42183333333336</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17787,15 +18309,15 @@
         <v>12.40666666666669</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17828,15 +18350,15 @@
         <v>12.39233333333336</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17869,15 +18391,15 @@
         <v>12.37966666666669</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17910,15 +18432,15 @@
         <v>12.36266666666669</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17951,15 +18473,15 @@
         <v>12.34533333333335</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17992,15 +18514,15 @@
         <v>12.31633333333335</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18033,15 +18555,15 @@
         <v>12.29866666666669</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18074,15 +18596,15 @@
         <v>12.27916666666669</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18115,15 +18637,15 @@
         <v>12.25166666666668</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18156,15 +18678,15 @@
         <v>12.22933333333335</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18197,15 +18719,15 @@
         <v>12.21350000000002</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18238,15 +18760,15 @@
         <v>12.19566666666669</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18279,15 +18801,15 @@
         <v>12.18150000000002</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18320,15 +18842,15 @@
         <v>12.16716666666669</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18361,15 +18883,15 @@
         <v>12.15666666666669</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18402,15 +18924,15 @@
         <v>12.14483333333335</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18443,15 +18965,15 @@
         <v>12.13416666666668</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18484,15 +19006,15 @@
         <v>12.12250000000001</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18525,15 +19047,15 @@
         <v>12.11100000000001</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>12</v>
-      </c>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18566,15 +19088,15 @@
         <v>12.10116666666668</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>12</v>
-      </c>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18607,15 +19129,15 @@
         <v>12.08916666666668</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18648,15 +19170,15 @@
         <v>12.08250000000001</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>12</v>
-      </c>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18689,15 +19211,15 @@
         <v>12.08400000000001</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>12</v>
-      </c>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18730,15 +19252,15 @@
         <v>12.08450000000001</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>12</v>
-      </c>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18771,15 +19293,15 @@
         <v>12.08133333333335</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
       </c>
-      <c r="J516" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18812,15 +19334,15 @@
         <v>12.07683333333335</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
-      <c r="J517" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18853,15 +19375,15 @@
         <v>12.07533333333335</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
       </c>
-      <c r="J518" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18894,15 +19416,15 @@
         <v>12.07033333333335</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
       </c>
-      <c r="J519" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18935,15 +19457,15 @@
         <v>12.06700000000001</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
       </c>
-      <c r="J520" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18976,15 +19498,15 @@
         <v>12.06133333333335</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
       </c>
-      <c r="J521" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19017,15 +19539,15 @@
         <v>12.05450000000001</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
-      <c r="J522" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19058,15 +19580,15 @@
         <v>12.04450000000002</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19099,15 +19621,15 @@
         <v>12.03633333333335</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19140,15 +19662,15 @@
         <v>12.02966666666668</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19181,15 +19703,15 @@
         <v>12.01950000000001</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
       </c>
-      <c r="J526" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19222,15 +19744,15 @@
         <v>12.00466666666668</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19263,15 +19785,15 @@
         <v>11.99166666666668</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19304,15 +19826,15 @@
         <v>11.97816666666668</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
       </c>
-      <c r="J529" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19345,15 +19867,15 @@
         <v>11.96233333333335</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19386,15 +19908,15 @@
         <v>11.95366666666668</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19427,15 +19949,15 @@
         <v>11.94133333333335</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19468,15 +19990,15 @@
         <v>11.93116666666668</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19509,15 +20031,15 @@
         <v>11.92633333333335</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
-      <c r="J534" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19550,15 +20072,15 @@
         <v>11.91733333333335</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19591,15 +20113,15 @@
         <v>11.90833333333335</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19632,15 +20154,15 @@
         <v>11.90216666666668</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19673,15 +20195,15 @@
         <v>11.89566666666668</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19714,15 +20236,15 @@
         <v>11.88966666666668</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
       </c>
-      <c r="J539" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19755,15 +20277,15 @@
         <v>11.88066666666668</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
       </c>
-      <c r="J540" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19796,15 +20318,15 @@
         <v>11.87250000000001</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
       </c>
-      <c r="J541" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19837,15 +20359,15 @@
         <v>11.86100000000001</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
-      <c r="J542" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19878,15 +20400,15 @@
         <v>11.84950000000001</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L543" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-11 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-11 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-660375.8107865213</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-652375.5107865212</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>9.26</v>
@@ -521,7 +521,7 @@
         <v>-627375.5095865212</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>9.49</v>
@@ -562,7 +562,7 @@
         <v>-556410.5095865212</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>9.5</v>
@@ -603,7 +603,7 @@
         <v>-520636.0811865212</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>9.701000000000001</v>
@@ -640,7 +640,7 @@
         <v>-520636.0811865212</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>9.706</v>
@@ -681,7 +681,7 @@
         <v>-520636.0811865212</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>9.706</v>
@@ -722,7 +722,7 @@
         <v>-287636.0811865212</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>9.706</v>
@@ -759,7 +759,7 @@
         <v>-287636.0811865212</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>9.73</v>
@@ -800,7 +800,7 @@
         <v>-287636.0811865212</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>9.73</v>
@@ -841,7 +841,7 @@
         <v>-287636.0811865212</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>9.73</v>
@@ -878,7 +878,7 @@
         <v>-236000.3203865212</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>9.73</v>
@@ -919,7 +919,7 @@
         <v>-235954.3203865212</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>9.75</v>
@@ -960,7 +960,7 @@
         <v>-232954.3203865212</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>9.85</v>
@@ -1001,7 +1001,7 @@
         <v>-229454.3203865212</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>10.35</v>
@@ -1042,7 +1042,7 @@
         <v>-229454.3203865212</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>10.8</v>
@@ -1083,7 +1083,7 @@
         <v>1436687.77729005</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>10.8</v>
@@ -1124,11 +1124,9 @@
         <v>1374940.372961478</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>9.73</v>
       </c>
@@ -1165,11 +1163,9 @@
         <v>-540475.0060874966</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>9.73</v>
       </c>
@@ -1206,11 +1202,9 @@
         <v>-32671.06604161422</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>9.73</v>
       </c>
@@ -1286,11 +1280,9 @@
         <v>386583.1118105098</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>9.73</v>
       </c>
@@ -1678,7 +1670,7 @@
         <v>1924944.932464679</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
@@ -1686,15 +1678,13 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.159439876670092</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.063714902807775</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1719,11 +1709,17 @@
         <v>1880415.240464679</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1752,11 +1748,17 @@
         <v>2005139.558564679</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1785,11 +1787,17 @@
         <v>1684269.228364679</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1818,11 +1826,17 @@
         <v>1842140.148581722</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1851,11 +1865,17 @@
         <v>1577145.280081722</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1887,8 +1907,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1917,15 +1943,23 @@
         <v>1895136.655664358</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>1.684619732785201</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.063714902807775</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1950,7 +1984,7 @@
         <v>2351505.840110962</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1983,7 +2017,7 @@
         <v>2520823.474031899</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2016,7 +2050,7 @@
         <v>2351290.288631899</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2049,7 +2083,7 @@
         <v>2199919.7786319</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2082,7 +2116,7 @@
         <v>2705660.9447319</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2115,7 +2149,7 @@
         <v>2423355.269131899</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2148,7 +2182,7 @@
         <v>2512286.183631899</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2181,7 +2215,7 @@
         <v>2195966.209431899</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2214,7 +2248,7 @@
         <v>1980128.744269303</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2247,7 +2281,7 @@
         <v>1932131.217998181</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2280,7 +2314,7 @@
         <v>1932131.217998181</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2313,7 +2347,7 @@
         <v>1569057.271884138</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2346,7 +2380,7 @@
         <v>1398363.708184138</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2577,7 +2611,7 @@
         <v>1209558.621984137</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2643,7 +2677,7 @@
         <v>1335510.970184137</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2676,7 +2710,7 @@
         <v>1452246.319584137</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2973,7 +3007,7 @@
         <v>1449507.002680252</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3006,7 +3040,7 @@
         <v>1626872.559080252</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3039,7 +3073,7 @@
         <v>1580993.096780252</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3072,7 +3106,7 @@
         <v>1033562.820980252</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3105,7 +3139,7 @@
         <v>1194416.456580252</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3138,7 +3172,7 @@
         <v>1314426.052780252</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3171,7 +3205,7 @@
         <v>1325222.053180252</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3204,7 +3238,7 @@
         <v>1228379.898080252</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3336,7 +3370,7 @@
         <v>180338.5937802519</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3633,7 +3667,7 @@
         <v>-182788.5157197482</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3699,7 +3733,7 @@
         <v>-430034.2446197481</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3732,7 +3766,7 @@
         <v>-746191.2745197482</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3831,7 +3865,7 @@
         <v>-1252409.054519748</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3864,7 +3898,7 @@
         <v>-1684719.454219748</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3897,7 +3931,7 @@
         <v>-1684719.454219748</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3963,7 +3997,7 @@
         <v>-1905177.390819748</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4095,7 +4129,7 @@
         <v>-1200939.930219749</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4128,7 +4162,7 @@
         <v>-1141764.885719748</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4161,7 +4195,7 @@
         <v>-1073780.367719749</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4227,7 +4261,7 @@
         <v>-1258630.252519749</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4359,7 +4393,7 @@
         <v>-1412013.090719749</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4392,7 +4426,7 @@
         <v>-1410463.347519749</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -6801,7 +6835,7 @@
         <v>-1363063.556995365</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6834,7 +6868,7 @@
         <v>-1490064.382695365</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6867,7 +6901,7 @@
         <v>-1613827.202695365</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6900,7 +6934,7 @@
         <v>-1618663.017695365</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6933,7 +6967,7 @@
         <v>-2065476.395095365</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7263,7 +7297,7 @@
         <v>-2193436.011347278</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7296,7 +7330,7 @@
         <v>-1967147.743273183</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7329,7 +7363,7 @@
         <v>-1975271.019973184</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7362,7 +7396,7 @@
         <v>-1761107.977795683</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7395,7 +7429,7 @@
         <v>-1563462.982589755</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7428,7 +7462,7 @@
         <v>-1628866.887159138</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7461,7 +7495,7 @@
         <v>-1858332.2268491</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7494,7 +7528,7 @@
         <v>-1724265.066220324</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7527,7 +7561,7 @@
         <v>-1724265.066220324</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7560,7 +7594,7 @@
         <v>-2446587.809020324</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7593,7 +7627,7 @@
         <v>-2586824.369135987</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7626,7 +7660,7 @@
         <v>-2703846.591380802</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7989,7 +8023,7 @@
         <v>-2947465.027608585</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -15051,7 +15085,7 @@
         <v>-4212123.121555853</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15447,7 +15481,7 @@
         <v>-4001342.147150745</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15579,7 +15613,7 @@
         <v>-3905129.156250745</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15612,7 +15646,7 @@
         <v>-3905129.156250745</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15645,7 +15679,7 @@
         <v>-3908523.014650745</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16404,7 +16438,7 @@
         <v>-4085898.178827535</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -20804,6 +20838,6 @@
       <c r="M612" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-11 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-660375.8107865213</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-652375.5107865212</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-627375.5095865212</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-556410.5095865212</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-520636.0811865212</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9.701000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9.701000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-520636.0811865212</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.706</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.701000000000001</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-520636.0811865212</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9.706</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9.701000000000001</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>-287636.0811865212</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9.706</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.706</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>-287636.0811865212</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9.706</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>-287636.0811865212</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.706</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,14 +781,10 @@
         <v>-287636.0811865212</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -878,19 +814,11 @@
         <v>-236000.3203865212</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -919,19 +847,11 @@
         <v>-235954.3203865212</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -960,19 +880,11 @@
         <v>-232954.3203865212</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1001,19 +913,11 @@
         <v>-229454.3203865212</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1042,19 +946,11 @@
         <v>-229454.3203865212</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1083,19 +979,11 @@
         <v>1436687.77729005</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1127,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1166,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1205,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1244,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1283,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1319,17 +1177,11 @@
         <v>983432.1987096479</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1358,17 +1210,11 @@
         <v>889341.9849113239</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1397,17 +1243,11 @@
         <v>978897.8845214583</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1436,17 +1276,11 @@
         <v>1051003.383921458</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1475,17 +1309,11 @@
         <v>1276369.865621458</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1514,17 +1342,11 @@
         <v>1465143.322336363</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1553,17 +1375,11 @@
         <v>2249435.316021458</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1595,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1634,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1673,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1712,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1751,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1790,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1829,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1868,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1907,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1943,23 +1705,15 @@
         <v>1895136.655664358</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.684619732785201</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.063714902807775</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1984,7 +1738,7 @@
         <v>2351505.840110962</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2017,7 +1771,7 @@
         <v>2520823.474031899</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2050,7 +1804,7 @@
         <v>2351290.288631899</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2083,7 +1837,7 @@
         <v>2199919.7786319</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2116,7 +1870,7 @@
         <v>2705660.9447319</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2149,7 +1903,7 @@
         <v>2423355.269131899</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2182,7 +1936,7 @@
         <v>2512286.183631899</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2215,7 +1969,7 @@
         <v>2195966.209431899</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2248,7 +2002,7 @@
         <v>1980128.744269303</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2413,7 +2167,7 @@
         <v>1198516.364884138</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2446,7 +2200,7 @@
         <v>1230566.477284138</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2479,7 +2233,7 @@
         <v>1315977.514884138</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2611,7 +2365,7 @@
         <v>1209558.621984137</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2677,7 +2431,7 @@
         <v>1335510.970184137</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2710,7 +2464,7 @@
         <v>1452246.319584137</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3106,7 +2860,7 @@
         <v>1033562.820980252</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -19177,10 +18931,14 @@
         <v>-7383503.776890174</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="J562" t="n">
+        <v>11.73</v>
+      </c>
       <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
@@ -19210,11 +18968,19 @@
         <v>-7361696.776890174</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="J563" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19243,11 +19009,19 @@
         <v>-7543753.460690174</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="J564" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19276,11 +19050,19 @@
         <v>-7218040.861790175</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="J565" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19309,11 +19091,19 @@
         <v>-7272434.741390174</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="J566" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19342,11 +19132,19 @@
         <v>-7272434.741390174</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J567" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19375,11 +19173,19 @@
         <v>-7272534.741390174</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J568" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19408,11 +19214,19 @@
         <v>-7272534.741390174</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>12</v>
+      </c>
+      <c r="J569" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19441,11 +19255,19 @@
         <v>-7142754.434990174</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>12</v>
+      </c>
+      <c r="J570" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19474,11 +19296,19 @@
         <v>-7142854.434990174</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J571" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19507,11 +19337,19 @@
         <v>-7142804.434990174</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="J572" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19540,11 +19378,19 @@
         <v>-7142804.434990174</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>12</v>
+      </c>
+      <c r="J573" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19573,11 +19419,19 @@
         <v>-7143909.742990174</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>12</v>
+      </c>
+      <c r="J574" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19606,11 +19460,19 @@
         <v>-7168096.265690174</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="J575" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19639,11 +19501,19 @@
         <v>-7273796.988690174</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="J576" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19672,11 +19542,19 @@
         <v>-7273753.988690174</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="J577" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19705,11 +19583,19 @@
         <v>-7515193.783490174</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="J578" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19738,11 +19624,19 @@
         <v>-7515143.783490174</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J579" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19771,11 +19665,19 @@
         <v>-7275081.937390175</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="J580" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19804,11 +19706,19 @@
         <v>-7275158.287390174</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="J581" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19837,11 +19747,19 @@
         <v>-7275158.287390174</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J582" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19870,11 +19788,19 @@
         <v>-7275158.287390174</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J583" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19903,11 +19829,19 @@
         <v>-7174319.428990174</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J584" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19936,11 +19870,19 @@
         <v>-7283707.104990174</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J585" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19969,11 +19911,19 @@
         <v>-7684293.928890174</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J586" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20002,11 +19952,19 @@
         <v>-7684293.928890174</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="J587" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20035,11 +19993,19 @@
         <v>-7550183.050790174</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="J588" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20068,11 +20034,19 @@
         <v>-7550233.050790174</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J589" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20101,11 +20075,19 @@
         <v>-7550189.703190174</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="J590" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20134,11 +20116,19 @@
         <v>-7550239.703190174</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J591" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20167,11 +20157,19 @@
         <v>-7539987.215690174</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="J592" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20200,11 +20198,19 @@
         <v>-7468801.267990174</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J593" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20233,11 +20239,19 @@
         <v>-7528080.036590174</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="J594" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20266,11 +20280,19 @@
         <v>-7528080.036590174</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J595" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20299,11 +20321,19 @@
         <v>-7381080.036590174</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J596" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20332,11 +20362,19 @@
         <v>-7213676.683190173</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="J597" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20365,11 +20403,19 @@
         <v>-7213676.683190173</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J598" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20398,11 +20444,19 @@
         <v>-7216937.683190173</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J599" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20431,11 +20485,19 @@
         <v>-7216937.683190173</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="J600" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20464,11 +20526,19 @@
         <v>-7220198.683190173</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="J601" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20497,11 +20567,19 @@
         <v>-7220198.683190173</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J602" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20530,11 +20608,19 @@
         <v>-7220198.683190173</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J603" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20563,11 +20649,19 @@
         <v>-7158026.557690173</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J604" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20596,11 +20690,19 @@
         <v>-7158026.557690173</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="J605" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20629,11 +20731,19 @@
         <v>-7158026.557690173</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="J606" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20662,11 +20772,19 @@
         <v>-7158026.557690173</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="J607" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20695,11 +20813,19 @@
         <v>-7158076.557690173</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="J608" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20728,11 +20854,19 @@
         <v>-7158076.557690173</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J609" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20761,11 +20895,19 @@
         <v>-7158076.557690173</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J610" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20794,11 +20936,19 @@
         <v>-7158076.557690173</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J611" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20827,17 +20977,25 @@
         <v>-7158076.557690173</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J612" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
       <c r="M612" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-11 BackTest ETZ.xlsx
@@ -1177,7 +1177,7 @@
         <v>983432.1987096479</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>889341.9849113239</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>978897.8845214583</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1051003.383921458</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1276369.865621458</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1465143.322336363</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2249435.316021458</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2523278.854364679</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1924944.932464679</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1880415.240464679</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2005139.558564679</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1684269.228364679</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1842140.148581722</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1577145.280081722</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1160111.824381722</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>1895136.655664358</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2351505.840110962</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2199919.7786319</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2705660.9447319</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2423355.269131899</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1980128.744269303</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1932131.217998181</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1932131.217998181</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1569057.271884138</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1398363.708184138</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1198516.364884138</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1230566.477284138</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1315977.514884138</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>2621309.674584137</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2256257.624780252</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2121294.476180252</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1946214.928380252</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2143205.989780252</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2039959.343780252</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2021770.679080252</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1449507.002680252</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1626872.559080252</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1580993.096780252</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1033562.820980252</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1194416.456580252</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1314426.052780252</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1228379.898080252</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>836497.6981802519</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>103416.7643802519</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>89074.50948025181</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-182788.5157197482</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-226639.5298197482</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-430034.2446197481</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-746191.2745197482</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-931835.8456197487</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1005918.879652749</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1085284.035252749</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1179125.981352749</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-990397.5273527488</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1133322.590952749</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1022446.238452749</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-988253.5288527488</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1258533.643852749</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1139570.785252749</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1103551.225452749</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1103551.225452749</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1119966.530252749</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1122284.154352749</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1131237.943826433</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1203055.474026433</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1120811.147326433</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1042289.703226433</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-937660.770188362</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-949852.8471068334</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1010536.435806833</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-979232.0013299304</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1467117.789529398</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1563462.982589755</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1628866.887159138</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1858332.2268491</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1724265.066220324</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1724265.066220324</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2446587.809020324</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2586824.369135987</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -18403,10 +18403,14 @@
         <v>-7313867.548006257</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J546" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
@@ -18439,8 +18443,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18472,8 +18482,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +18518,19 @@
         <v>-7147558.943406879</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="J549" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +18559,19 @@
         <v>-7147558.943406879</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="J550" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +18600,19 @@
         <v>-7352319.366406879</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="J551" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18604,8 +18644,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18634,11 +18680,19 @@
         <v>-7360575.176590174</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="J553" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18667,11 +18721,19 @@
         <v>-7470617.371390174</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="J554" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18700,11 +18762,19 @@
         <v>-7647433.390990174</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="J555" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +18803,19 @@
         <v>-7116990.717790174</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="J556" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18769,8 +18847,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18802,8 +18886,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +18922,19 @@
         <v>-7086453.206890174</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="J559" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +18963,19 @@
         <v>-7486519.804390174</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J560" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18901,8 +19007,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18937,9 +19049,13 @@
         <v>11.73</v>
       </c>
       <c r="J562" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K562" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18974,11 +19090,11 @@
         <v>11.73</v>
       </c>
       <c r="J563" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L563" t="n">
@@ -19009,17 +19125,15 @@
         <v>-7543753.460690174</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>11.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L564" t="n">
@@ -19050,17 +19164,15 @@
         <v>-7218040.861790175</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>11.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L565" t="n">
@@ -19091,13 +19203,11 @@
         <v>-7272434.741390174</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>12.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19138,7 +19248,7 @@
         <v>12.05</v>
       </c>
       <c r="J567" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -19179,7 +19289,7 @@
         <v>12.05</v>
       </c>
       <c r="J568" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -19220,7 +19330,7 @@
         <v>12</v>
       </c>
       <c r="J569" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -19261,7 +19371,7 @@
         <v>12</v>
       </c>
       <c r="J570" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -19302,7 +19412,7 @@
         <v>12.05</v>
       </c>
       <c r="J571" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -19343,7 +19453,7 @@
         <v>11.87</v>
       </c>
       <c r="J572" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -19384,7 +19494,7 @@
         <v>12</v>
       </c>
       <c r="J573" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -19425,7 +19535,7 @@
         <v>12</v>
       </c>
       <c r="J574" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -19466,7 +19576,7 @@
         <v>11.99</v>
       </c>
       <c r="J575" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -19507,7 +19617,7 @@
         <v>11.76</v>
       </c>
       <c r="J576" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -19548,7 +19658,7 @@
         <v>11.73</v>
       </c>
       <c r="J577" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -19589,7 +19699,7 @@
         <v>11.86</v>
       </c>
       <c r="J578" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -19630,7 +19740,7 @@
         <v>11.6</v>
       </c>
       <c r="J579" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -19671,7 +19781,7 @@
         <v>11.75</v>
       </c>
       <c r="J580" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -19712,7 +19822,7 @@
         <v>11.76</v>
       </c>
       <c r="J581" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -19753,7 +19863,7 @@
         <v>11.7</v>
       </c>
       <c r="J582" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -19794,7 +19904,7 @@
         <v>11.7</v>
       </c>
       <c r="J583" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -19835,7 +19945,7 @@
         <v>11.7</v>
       </c>
       <c r="J584" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -19876,7 +19986,7 @@
         <v>11.8</v>
       </c>
       <c r="J585" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -19917,7 +20027,7 @@
         <v>11.6</v>
       </c>
       <c r="J586" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -19958,7 +20068,7 @@
         <v>11.32</v>
       </c>
       <c r="J587" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -19999,7 +20109,7 @@
         <v>11.32</v>
       </c>
       <c r="J588" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20040,7 +20150,7 @@
         <v>11.5</v>
       </c>
       <c r="J589" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20081,7 +20191,7 @@
         <v>11.37</v>
       </c>
       <c r="J590" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20122,7 +20232,7 @@
         <v>11.6</v>
       </c>
       <c r="J591" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20163,7 +20273,7 @@
         <v>11.39</v>
       </c>
       <c r="J592" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20204,7 +20314,7 @@
         <v>11.6</v>
       </c>
       <c r="J593" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20245,7 +20355,7 @@
         <v>11.84</v>
       </c>
       <c r="J594" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20286,7 +20396,7 @@
         <v>11.6</v>
       </c>
       <c r="J595" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20327,7 +20437,7 @@
         <v>11.6</v>
       </c>
       <c r="J596" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20368,7 +20478,7 @@
         <v>11.79</v>
       </c>
       <c r="J597" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20409,7 +20519,7 @@
         <v>11.8</v>
       </c>
       <c r="J598" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -20450,7 +20560,7 @@
         <v>11.8</v>
       </c>
       <c r="J599" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -20491,7 +20601,7 @@
         <v>11.61</v>
       </c>
       <c r="J600" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -20532,7 +20642,7 @@
         <v>11.61</v>
       </c>
       <c r="J601" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -20573,7 +20683,7 @@
         <v>11.51</v>
       </c>
       <c r="J602" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -20614,7 +20724,7 @@
         <v>11.51</v>
       </c>
       <c r="J603" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -20655,7 +20765,7 @@
         <v>11.51</v>
       </c>
       <c r="J604" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -20696,7 +20806,7 @@
         <v>11.61</v>
       </c>
       <c r="J605" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -20737,7 +20847,7 @@
         <v>11.61</v>
       </c>
       <c r="J606" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -20778,7 +20888,7 @@
         <v>11.61</v>
       </c>
       <c r="J607" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -20819,7 +20929,7 @@
         <v>11.61</v>
       </c>
       <c r="J608" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -20860,7 +20970,7 @@
         <v>11.5</v>
       </c>
       <c r="J609" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -20901,7 +21011,7 @@
         <v>11.5</v>
       </c>
       <c r="J610" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -20942,7 +21052,7 @@
         <v>11.5</v>
       </c>
       <c r="J611" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -20983,7 +21093,7 @@
         <v>11.5</v>
       </c>
       <c r="J612" t="n">
-        <v>11.73</v>
+        <v>12.2</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
